--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/15_Bayburt_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/15_Bayburt_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B89C5471-46BB-43B4-9BE5-FC38EC19997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{233A22A1-811C-45AE-929C-8293010A49AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{733B57A9-0C3D-4EDD-B3BB-4E78B1E620DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{F1CDAFB2-2A3E-44E6-B0D3-E774868BBFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -957,14 +957,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D3685E43-0A9E-4B27-B375-273893284D3C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{88CAA063-C9AB-428A-B383-D72F4340C185}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{ED4BE962-0300-4EE2-8BFE-D412655DB3EA}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{9F7BCB36-C0E9-4CF6-AA56-F6FDBF3AD0B1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{A2B44897-BCA2-452D-B8CE-E9E28C5FDDE2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E96D93F3-9308-4AEA-B3CF-9B630CA4E490}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{7A0169E2-5DB0-434C-AE80-805493D8FE8D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BA249B9B-DEAD-4CD1-A049-9F60D2BC19C6}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{359D80F2-4849-4A37-B090-21EC6AF31FAF}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2C023BCD-2583-41FC-B26E-B5BBAE26CE79}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{814E7F8A-89CE-45DA-8501-758B0B6035D9}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{31F1885C-50FE-4CA5-B35C-6B6FD54437DD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{632E3BEC-3216-41BF-99BF-0EA02F209F61}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{863EADB5-4188-46B1-8D14-CE65F148FA6C}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{747785C4-8B65-4346-B42F-785C09355BE5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5E544D19-0D04-4D4F-9207-3F87838C28CA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1334,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE1DFF-35F1-4A7A-A017-B023D11F919D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C204EF-25E0-4CEB-8044-E9413A2942B5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2543,7 +2543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC7B6F9-3BDD-4087-843C-0094E57FC984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06F4D18-C04B-4DEF-8555-E237DA792012}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3749,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE7860-CD1E-4985-8BE0-5B7246336EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03407E4C-8103-4310-A5DB-8080A2371345}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -4955,7 +4955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAA9C7D-8FA6-42AF-B210-758EA07C04E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1978F74-7AD5-4820-9F04-46FA01625558}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6153,7 +6153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B78185B-2DF9-4B60-BB90-AC18DA2C17CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A57CC85-CB51-4C4F-8C6A-C57C8AE2D069}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7360,7 +7360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AFAE0E-04AF-47E0-A4B8-44DA026F055D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F3A7F-9A95-48DD-866B-F4216AAF5AF7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8567,7 +8567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE814F7-02CA-4A8B-9D62-EBEE8ED1F0D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215CCB2D-59D6-4409-89E5-F54422C15430}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9776,7 +9776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90F772B-831F-46E7-A934-105CCF7FDAB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97261E7-1CE5-4DC1-9AF0-7E86D8667054}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10983,7 +10983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EF0B49-5E4F-4E5E-A02B-7120AA3EA15F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BAEEDC-83BE-456C-9D5F-5CEF893AF666}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12190,7 +12190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECF26E4-CAA6-47C5-B981-F93DBD975B62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A89D4E-5E9D-4F43-83C0-56BFD5388546}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13400,7 +13400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3151EB91-A236-4339-B9FD-74000C0514E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11957F4-14FB-4BB8-8D8E-2EFA234F5609}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14608,7 +14608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DB6E5D-E37D-46AC-81EF-B5F12BDDD66C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FCB49C-F252-4C93-AB25-65463D92CCEA}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
